--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,43 +49,43 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
@@ -94,34 +94,31 @@
     <t>size</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>2</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
@@ -130,27 +127,18 @@
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -160,49 +148,49 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
   </si>
   <si>
     <t>easy</t>
@@ -569,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -577,10 +565,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +626,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +644,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>0.8769230769230769</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,16 +697,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>0.8571428571428571</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +726,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7887323943661971</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.75</v>
@@ -838,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6881720430107527</v>
+        <v>0.703125</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -856,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6407766990291263</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C8">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>0.5868005738880918</v>
+        <v>0.5942028985507246</v>
       </c>
       <c r="L8">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>409</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>288</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +926,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6363636363636364</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>0.5507246376811594</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>397</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6283783783783784</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1006,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>0.516597510373444</v>
+        <v>0.5352697095435685</v>
       </c>
       <c r="L10">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M10">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1030,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1038,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6134453781512605</v>
+        <v>0.5546218487394958</v>
       </c>
       <c r="C11">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>0.4762295081967213</v>
+        <v>0.469672131147541</v>
       </c>
       <c r="L11">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M11">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5043478260869565</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="C12">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D12">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>0.3883792048929663</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>200</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4736842105263158</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C13">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1156,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>80</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4296875</v>
+        <v>0.4251968503937008</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,16 +1197,16 @@
         <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.3756613756613756</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1230,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4265402843601896</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1256,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K15">
-        <v>0.3253012048192771</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1280,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>112</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1288,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4216867469879518</v>
+        <v>0.3838862559241706</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1330,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1338,37 +1326,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4173228346456693</v>
+        <v>0.375</v>
       </c>
       <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D17">
-        <v>53</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>74</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="K17">
-        <v>0.2307692307692308</v>
+        <v>0.2237762237762238</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1380,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1388,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2905982905982906</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1406,19 +1394,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K18">
-        <v>0.1935483870967742</v>
+        <v>0.2088353413654618</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1430,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>150</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1438,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2821782178217822</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1456,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K19">
-        <v>0.1927710843373494</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1480,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>201</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1488,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2577319587628866</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C20">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1506,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>0.1649122807017544</v>
+        <v>0.1817383669885865</v>
       </c>
       <c r="L20">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M20">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N20">
         <v>0.99</v>
@@ -1530,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1538,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2391304347826087</v>
+        <v>0.22</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1556,31 +1544,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>0.1197771587743733</v>
+        <v>0.09870129870129871</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>316</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1588,49 +1576,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1962025316455696</v>
+        <v>0.1988472622478386</v>
       </c>
       <c r="C22">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.0935672514619883</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L22">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1395</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1638,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.19</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1656,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K23">
-        <v>0.09090909090909091</v>
+        <v>0.07754010695187166</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1680,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1688,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1869436201780415</v>
+        <v>0.1884272997032641</v>
       </c>
       <c r="C24">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D24">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1706,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K24">
-        <v>0.05066666666666667</v>
+        <v>0.048</v>
       </c>
       <c r="L24">
+        <v>36</v>
+      </c>
+      <c r="M24">
         <v>38</v>
-      </c>
-      <c r="M24">
-        <v>40</v>
       </c>
       <c r="N24">
         <v>0.95</v>
@@ -1730,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1738,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1839080459770115</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1756,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1764,13 +1752,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1775700934579439</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C26">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1782,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1790,13 +1778,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1772151898734177</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1808,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>260</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1816,25 +1804,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1518324607329843</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>162</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1842,13 +1830,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1497797356828194</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C29">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1860,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1868,25 +1856,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1278195488721804</v>
+        <v>0.08169014084507042</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>232</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1894,25 +1882,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.096045197740113</v>
+        <v>0.0695364238410596</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>320</v>
+        <v>562</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1920,129 +1908,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.07933884297520662</v>
+        <v>0.05597964376590331</v>
       </c>
       <c r="C32">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F32">
-        <v>0.9399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.07589285714285714</v>
-      </c>
-      <c r="C33">
-        <v>34</v>
-      </c>
-      <c r="D33">
-        <v>35</v>
-      </c>
-      <c r="E33">
-        <v>0.03</v>
-      </c>
-      <c r="F33">
-        <v>0.97</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.06744186046511629</v>
-      </c>
-      <c r="C34">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34">
-        <v>0.12</v>
-      </c>
-      <c r="F34">
-        <v>0.88</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.05504587155963303</v>
-      </c>
-      <c r="C35">
-        <v>36</v>
-      </c>
-      <c r="D35">
-        <v>37</v>
-      </c>
-      <c r="E35">
-        <v>0.03</v>
-      </c>
-      <c r="F35">
-        <v>0.97</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.05082592121982211</v>
-      </c>
-      <c r="C36">
-        <v>40</v>
-      </c>
-      <c r="D36">
-        <v>47</v>
-      </c>
-      <c r="E36">
-        <v>0.15</v>
-      </c>
-      <c r="F36">
-        <v>0.85</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
